--- a/Students/Others/Lab30424.xlsx
+++ b/Students/Others/Lab30424.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="46">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,11 +298,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -700,7 +695,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1056,7 +1051,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,13 +1159,21 @@
       <c r="K2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="M2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="R2" s="4">
         <v>1</v>
       </c>
@@ -1219,13 +1222,21 @@
       <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="Q3">
         <v>0.5</v>
       </c>
@@ -1481,11 +1492,21 @@
       <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="Q8">
         <v>0.4</v>
       </c>
@@ -1588,13 +1609,24 @@
       <c r="K10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="M10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10">
+        <v>1.4</v>
+      </c>
       <c r="R10" s="4">
         <v>10</v>
       </c>
@@ -1603,7 +1635,7 @@
       </c>
       <c r="T10" s="7">
         <f t="shared" si="1"/>
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="U10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -1812,18 +1844,36 @@
       <c r="F15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="M15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="Q15">
         <v>0.35</v>
       </c>
@@ -1926,13 +1976,21 @@
       <c r="K17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="M17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="Q17">
         <v>1.2</v>
       </c>
@@ -1984,13 +2042,21 @@
       <c r="K18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="M18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="Q18">
         <v>0.4</v>
       </c>
@@ -2041,10 +2107,18 @@
         <v>38</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="R19" s="3">
         <v>1</v>
       </c>
@@ -2093,11 +2167,15 @@
       <c r="K20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="M20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="O20" s="4" t="s">
         <v>38</v>
       </c>
@@ -2249,11 +2327,21 @@
       <c r="K23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="Q23">
         <v>1.5</v>
       </c>

--- a/Students/Others/Lab30424.xlsx
+++ b/Students/Others/Lab30424.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="47">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Situation</t>
+  </si>
+  <si>
+    <t>Bonus points</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -700,6 +703,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1057,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="R1" sqref="R1:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,16 +1121,19 @@
       <c r="P1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1174,17 +1183,17 @@
       <c r="P2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="7">
         <v>1</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="7">
         <v>8.6</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="7">
         <f>IF((R2+S2)/2 + Q2 &gt; 10, 10, (R2+S2)/2 + Q2)</f>
         <v>4.8</v>
       </c>
-      <c r="U2" s="4" t="str">
+      <c r="U2" s="7" t="str">
         <f>IF(AND(R2&gt;5, S2&gt;5), "pass", "fail")</f>
         <v>fail</v>
       </c>
@@ -1240,13 +1249,13 @@
       <c r="Q3">
         <v>0.5</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="6">
         <v>10</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="6">
         <v>6</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="6">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
         <v>8.5</v>
       </c>
@@ -1303,8 +1312,8 @@
       <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
@@ -1354,9 +1363,9 @@
       <c r="P5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,9 +1410,9 @@
       <c r="P6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,8 +1463,8 @@
       <c r="P7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
@@ -1510,10 +1519,10 @@
       <c r="Q8">
         <v>0.4</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="7">
         <v>10</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="7">
         <v>9.1999999999999993</v>
       </c>
       <c r="T8" s="7">
@@ -1571,8 +1580,8 @@
       <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
@@ -1627,10 +1636,10 @@
       <c r="Q10">
         <v>1.4</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="7">
         <v>10</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="7">
         <v>9.6</v>
       </c>
       <c r="T10" s="7">
@@ -1686,8 +1695,8 @@
       <c r="P11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
@@ -1721,8 +1730,8 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
@@ -1770,8 +1779,8 @@
       <c r="P13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
@@ -1821,8 +1830,8 @@
       <c r="P14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
     </row>
@@ -1877,10 +1886,10 @@
       <c r="Q15">
         <v>0.35</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="6">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="6">
         <v>8</v>
       </c>
       <c r="T15" s="6">
@@ -1938,8 +1947,8 @@
       <c r="P16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
     </row>
@@ -1994,10 +2003,10 @@
       <c r="Q17">
         <v>1.2</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="6">
         <v>10</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="6">
         <v>8.6</v>
       </c>
       <c r="T17" s="6">
@@ -2060,10 +2069,10 @@
       <c r="Q18">
         <v>0.4</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="7">
         <v>10</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="7">
         <v>1</v>
       </c>
       <c r="T18" s="7">
@@ -2119,10 +2128,10 @@
       <c r="P19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="6">
         <v>1</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="6">
         <v>7.7</v>
       </c>
       <c r="T19" s="6">
@@ -2185,8 +2194,8 @@
       <c r="Q20">
         <v>0.09</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
     </row>
@@ -2238,8 +2247,8 @@
       <c r="P21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
@@ -2289,8 +2298,8 @@
       <c r="P22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
     </row>
@@ -2345,10 +2354,10 @@
       <c r="Q23">
         <v>1.5</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="6">
         <v>10</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="6">
         <v>9</v>
       </c>
       <c r="T23" s="6">

--- a/Students/Others/Lab30424.xlsx
+++ b/Students/Others/Lab30424.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="49">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Bonus points</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1063,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:U23"/>
+      <selection activeCell="R2" sqref="R2:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,18 +1190,18 @@
         <v>38</v>
       </c>
       <c r="R2" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S2" s="7">
         <v>8.6</v>
       </c>
       <c r="T2" s="7">
         <f>IF((R2+S2)/2 + Q2 &gt; 10, 10, (R2+S2)/2 + Q2)</f>
-        <v>4.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="U2" s="7" t="str">
         <f>IF(AND(R2&gt;5, S2&gt;5), "pass", "fail")</f>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,10 +1318,16 @@
       <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="7"/>
+      <c r="R4" s="7">
+        <v>1</v>
+      </c>
       <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1363,10 +1375,16 @@
       <c r="P5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="6">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="T5" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1410,10 +1428,16 @@
       <c r="P6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="7"/>
+      <c r="R6" s="7">
+        <v>6.5</v>
+      </c>
       <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="T6" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1463,10 +1487,16 @@
       <c r="P7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7" s="6">
+        <v>6.4</v>
+      </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1580,10 +1610,16 @@
       <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="6">
+        <v>5.6</v>
+      </c>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="T9" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1695,10 +1731,16 @@
       <c r="P11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6">
+        <v>6.3</v>
+      </c>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="T11" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1779,10 +1821,16 @@
       <c r="P13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6">
+        <v>7.1</v>
+      </c>
       <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="T13" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1830,10 +1878,16 @@
       <c r="P14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="7"/>
+      <c r="R14" s="7">
+        <v>7.1</v>
+      </c>
       <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
+      <c r="T14" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1947,10 +2001,16 @@
       <c r="P16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="7"/>
+      <c r="R16" s="7">
+        <v>5.9</v>
+      </c>
       <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+      <c r="T16" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2073,15 +2133,15 @@
         <v>10</v>
       </c>
       <c r="S18" s="7">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="T18" s="7">
         <f t="shared" si="1"/>
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="U18" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,18 +2189,18 @@
         <v>38</v>
       </c>
       <c r="R19" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S19" s="6">
         <v>7.7</v>
       </c>
       <c r="T19" s="6">
         <f t="shared" si="1"/>
-        <v>4.3499999999999996</v>
+        <v>7.85</v>
       </c>
       <c r="U19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>fail</v>
+        <v>pass</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2194,10 +2254,16 @@
       <c r="Q20">
         <v>0.09</v>
       </c>
-      <c r="R20" s="7"/>
+      <c r="R20" s="7">
+        <v>1</v>
+      </c>
       <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -2247,10 +2313,16 @@
       <c r="P21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="R21" s="6">
+        <v>6.5</v>
+      </c>
       <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+      <c r="T21" s="6">
+        <v>7</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -2298,10 +2370,16 @@
       <c r="P22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="7"/>
+      <c r="R22" s="7">
+        <v>7.1</v>
+      </c>
       <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
+      <c r="T22" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
